--- a/src/MATLAB/results.xlsx
+++ b/src/MATLAB/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\prism.nas.gatech.edu\cseng3\vlab\documents\GitHub\ECE6258\src\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\prism.nas.gatech.edu\cseng3\vlab\documents\MATLAB\project\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="3825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="3360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>UserName</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Response2</t>
+  </si>
+  <si>
+    <t>ParentIndex</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,11 +412,12 @@
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,16 +437,19 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -461,17 +468,20 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -490,17 +500,20 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -519,17 +532,20 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -548,27 +564,18 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/MATLAB/results.xlsx
+++ b/src/MATLAB/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\prism.nas.gatech.edu\cseng3\vlab\documents\MATLAB\project\GUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\prism.nas.gatech.edu\cseng3\vlab\documents\GitHub\ECE6258\src\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>Caroline</t>
-  </si>
-  <si>
     <t>Timestamp</t>
   </si>
   <si>
@@ -43,18 +40,6 @@
     <t>SetName</t>
   </si>
   <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
     <t>ImageIndex</t>
   </si>
   <si>
@@ -62,18 +47,6 @@
   </si>
   <si>
     <t>Filename</t>
-  </si>
-  <si>
-    <t>im2.jpg</t>
-  </si>
-  <si>
-    <t>im1_c1.jpg</t>
-  </si>
-  <si>
-    <t>im3_c1.jpg</t>
-  </si>
-  <si>
-    <t>im4_c1.jpg</t>
   </si>
   <si>
     <t>Response1</t>
@@ -403,7 +376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -422,160 +397,44 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43064.692060185182</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43064.69222222222</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43064.692326388889</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43064.69253472222</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
